--- a/biology/Botanique/Philadelphus/Philadelphus.xlsx
+++ b/biology/Botanique/Philadelphus/Philadelphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philadelphus est un genre de plantes de la famille des Hydrangeaceae. C'est le genre des seringas ou seringats. Ce sont des arbustes à fleurs. Le nom « seringa(t) » vient d'une utilisation ancienne qui consistait à évider les tiges de leur moelle pour en faire des seringues.
 L'espèce la plus connue est sans doute Philadelphus coronarius.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'arbustes pouvant atteindre quelques mètres, à feuilles caduques, ovales, opposées, légèrement dentées, de 3 à 10 cm de long. 
 Les fleurs, nombreuses, solitaires ou groupées par deux ou trois à l'extrémité des pousses secondaires, sont blanches et apparaissent en mai-juin (début juillet au Québec) en répandant un parfum très marqué. Les formes simples sont composées d'une corolle formée de 4 pétales blancs et arrondis 2 fois plus longs que les sépales et de nombreuses étamines à filets blancs et anthères jaunes au centre.
@@ -546,16 +560,121 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Philadelphus a été décrit par le naturaliste suédois Carl von Linné en 1753[1].
-Synonymie
-Syringa Mill., Gard[2].
-Nom vernaculaire
-Seringa
-Seringat
-Liste d'espèces
-Philadelphus argenteus Rydb.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Philadelphus a été décrit par le naturaliste suédois Carl von Linné en 1753.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philadelphus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philadelphus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Syringa Mill., Gard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philadelphus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philadelphus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Seringa
+Seringat</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philadelphus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philadelphus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Philadelphus argenteus Rydb.
 Philadelphus argyrocalyx Woot.
 Philadelphus californicus Benth.
 Philadelphus caucasicus Koehne
@@ -592,33 +711,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Philadelphus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Philadelphus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, le seringat symbolise le souvenir ou l'amour fraternel[3] ; il est aussi l'emblème de la mémoire et de l'amour éternel[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le seringat symbolise le souvenir ou l'amour fraternel ; il est aussi l'emblème de la mémoire et de l'amour éternel.
 			Bourdon sur des fleurs de seringa.
 			Fleurs groupées.
 </t>
